--- a/MES/MES/data/BatchReports/BatchReport10.xlsx
+++ b/MES/MES/data/BatchReports/BatchReport10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Batch_ID:</t>
   </si>
@@ -70,265 +70,7 @@
     <t>Time:</t>
   </si>
   <si>
-    <t>11/12/2018 11:53:34.627 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:53:48.615 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:53:49.534 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:54:01.576 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:54:02.580 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:54:48.468 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:54:49.470 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:09.536 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:10.538 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:11.543 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:12.546 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:28.606 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:29.609 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:35.626 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:36.629 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:39.641 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:41.644 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:46.166 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:55:47.664 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:03.217 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:04.224 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:07.229 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:08.237 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:16.373 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:17.265 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:28.296 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:29.300 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:39.330 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:40.334 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:50.364 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:51.369 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:56.131 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:56:57.136 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:11.183 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:12.186 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:18.208 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:19.210 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:22.222 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:23.223 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:26.228 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:27.236 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:36.261 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:37.269 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:43.287 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:57:44.287 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:00.346 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:01.349 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:04.359 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:05.363 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:14.392 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:15.397 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:20.414 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:21.419 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:26.435 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:27.439 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:30.554 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:32.456 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:34.464 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:35.465 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:37.469 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:38.476 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:48.499 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:49.503 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:57.528 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:58:58.530 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:03.545 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:04.547 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:05.550 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:07.557 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:08.562 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:14.580 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:24.617 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:25.620 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:32.398 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:33.645 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:47.435 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:49.442 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:56.467 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:57.470 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:59:58.474 AM</t>
-  </si>
-  <si>
-    <t>11/12/2018 12:00:00.482 PM</t>
-  </si>
-  <si>
-    <t>11/12/2018 12:00:04.495 PM</t>
-  </si>
-  <si>
-    <t>11/12/2018 12:00:10.515 PM</t>
-  </si>
-  <si>
-    <t>11/12/2018 12:00:11.519 PM</t>
-  </si>
-  <si>
-    <t>11/12/2018 12:00:12.522 PM</t>
-  </si>
-  <si>
-    <t>11/12/2018 12:00:14.528 PM</t>
-  </si>
-  <si>
-    <t>11/12/2018 11:53:34.629 AM</t>
+    <t>17-12-2018 18:42:36</t>
   </si>
 </sst>
 </file>
@@ -769,9 +511,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.2832358224051" customWidth="1"/>
+    <col min="1" max="1" width="28.3694458007813" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.485597882952" customWidth="1"/>
+    <col min="3" max="3" width="11.7313341413225" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
@@ -790,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -798,13 +540,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>4</v>
@@ -900,7 +642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -919,687 +661,799 @@
         <v>18</v>
       </c>
       <c r="B2" s="0">
-        <v>34.599998474121094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0">
-        <v>34.700000762939453</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0">
-        <v>34.599998474121094</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0">
-        <v>34.700000762939453</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0">
-        <v>34.599998474121094</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0">
-        <v>34.700000762939453</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0">
-        <v>34.599998474121094</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0">
-        <v>34.700000762939453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0">
-        <v>34.599998474121094</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0">
-        <v>34.700000762939453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0">
-        <v>34.599998474121094</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0">
-        <v>34.700000762939453</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0">
-        <v>34.599998474121094</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>34.700000762939453</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0">
-        <v>34.599998474121094</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0">
-        <v>34.700000762939453</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0">
-        <v>34.599998474121094</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>34.700000762939453</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0">
-        <v>34.599998474121094</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0">
-        <v>34.700000762939453</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0">
-        <v>34.599998474121094</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B23" s="0">
-        <v>34.700000762939453</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B24" s="0">
-        <v>34.599998474121094</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B25" s="0">
-        <v>34.700000762939453</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0">
-        <v>34.599998474121094</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B27" s="0">
-        <v>34.700000762939453</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B28" s="0">
-        <v>34.599998474121094</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B29" s="0">
-        <v>34.700000762939453</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B30" s="0">
-        <v>34.599998474121094</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B31" s="0">
-        <v>34.700000762939453</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B32" s="0">
-        <v>34.599998474121094</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B33" s="0">
-        <v>34.700000762939453</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B34" s="0">
-        <v>34.599998474121094</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B35" s="0">
-        <v>34.700000762939453</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B36" s="0">
-        <v>34.599998474121094</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B37" s="0">
-        <v>34.700000762939453</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B38" s="0">
-        <v>34.599998474121094</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B39" s="0">
-        <v>34.700000762939453</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B40" s="0">
-        <v>34.599998474121094</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B41" s="0">
-        <v>34.700000762939453</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B42" s="0">
-        <v>34.599998474121094</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B43" s="0">
-        <v>34.700000762939453</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B44" s="0">
-        <v>34.599998474121094</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B45" s="0">
-        <v>34.700000762939453</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B46" s="0">
-        <v>34.599998474121094</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B47" s="0">
-        <v>34.700000762939453</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B48" s="0">
-        <v>34.599998474121094</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B49" s="0">
-        <v>34.700000762939453</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B50" s="0">
-        <v>34.599998474121094</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B51" s="0">
-        <v>34.700000762939453</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B52" s="0">
-        <v>34.599998474121094</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B53" s="0">
-        <v>34.700000762939453</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B54" s="0">
-        <v>34.599998474121094</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B55" s="0">
-        <v>34.700000762939453</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B56" s="0">
-        <v>34.599998474121094</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B57" s="0">
-        <v>34.700000762939453</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B58" s="0">
-        <v>34.599998474121094</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B59" s="0">
-        <v>34.700000762939453</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B60" s="0">
-        <v>34.599998474121094</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="0">
         <v>77</v>
-      </c>
-      <c r="B61" s="0">
-        <v>34.700000762939453</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B62" s="0">
-        <v>34.599998474121094</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B63" s="0">
-        <v>34.700000762939453</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B64" s="0">
-        <v>34.599998474121094</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B65" s="0">
-        <v>34.700000762939453</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B66" s="0">
-        <v>34.599998474121094</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B67" s="0">
-        <v>34.700000762939453</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B68" s="0">
-        <v>34.599998474121094</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B69" s="0">
-        <v>34.700000762939453</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B70" s="0">
-        <v>34.599998474121094</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B71" s="0">
-        <v>34.700000762939453</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="B72" s="0">
-        <v>34.599998474121094</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B73" s="0">
-        <v>34.700000762939453</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B74" s="0">
-        <v>34.599998474121094</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B75" s="0">
-        <v>34.700000762939453</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B76" s="0">
-        <v>34.599998474121094</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B77" s="0">
-        <v>34.700000762939453</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="B78" s="0">
-        <v>34.599998474121094</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B79" s="0">
-        <v>34.700000762939453</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="B80" s="0">
-        <v>34.599998474121094</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B81" s="0">
-        <v>34.700000762939453</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B82" s="0">
-        <v>34.599998474121094</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B83" s="0">
-        <v>34.700000762939453</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B84" s="0">
-        <v>34.599998474121094</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B85" s="0">
-        <v>34.700000762939453</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B86" s="0">
-        <v>34.599998474121094</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B87" s="0">
-        <v>34.700000762939453</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="0">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1626,10 +1480,802 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
